--- a/tests/artifact/script/BalanceSheet.xlsx
+++ b/tests/artifact/script/BalanceSheet.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="904">
   <si>
     <t>target</t>
   </si>
@@ -2370,6 +2370,9 @@
   </si>
   <si>
     <t>${desc.balancesheet}</t>
+  </si>
+  <si>
+    <t>Validate BalanceSheet lables</t>
   </si>
   <si>
     <t>${label.from}</t>
@@ -9906,7 +9909,7 @@
   <dimension ref="A1:O127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.6"/>
@@ -10278,7 +10281,7 @@
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="24"/>
       <c r="B14" s="25" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C14" s="26" t="s">
         <v>30</v>
@@ -10287,10 +10290,10 @@
         <v>319</v>
       </c>
       <c r="E14" s="44" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F14" s="45" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="27"/>
@@ -10305,7 +10308,7 @@
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A15" s="24"/>
       <c r="B15" s="25" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C15" s="26" t="s">
         <v>30</v>
@@ -10314,7 +10317,7 @@
         <v>253</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F15" s="46"/>
       <c r="G15" s="35"/>
@@ -10330,7 +10333,7 @@
     <row r="16" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>30</v>
@@ -10339,10 +10342,10 @@
         <v>319</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="27"/>
@@ -10357,7 +10360,7 @@
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="24"/>
       <c r="B17" s="25" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C17" s="26" t="s">
         <v>30</v>
@@ -10366,7 +10369,7 @@
         <v>253</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F17" s="46"/>
       <c r="G17" s="35"/>
@@ -10382,7 +10385,7 @@
     <row r="18" s="4" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A18" s="24"/>
       <c r="B18" s="25" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>30</v>
@@ -10391,10 +10394,10 @@
         <v>319</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G18" s="35"/>
       <c r="H18" s="33"/>
@@ -10404,7 +10407,7 @@
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="24"/>
       <c r="B19" s="25" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C19" s="26" t="s">
         <v>30</v>
@@ -10413,7 +10416,7 @@
         <v>253</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="F19" s="46"/>
       <c r="G19" s="35"/>
@@ -10429,7 +10432,7 @@
     <row r="20" s="4" customFormat="1" ht="22" customHeight="1" spans="1:10">
       <c r="A20" s="24"/>
       <c r="B20" s="33" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C20" s="26" t="s">
         <v>30</v>
@@ -10438,7 +10441,7 @@
         <v>253</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="35"/>
@@ -10449,7 +10452,7 @@
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="24"/>
       <c r="B21" s="25" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C21" s="26" t="s">
         <v>30</v>
@@ -10458,7 +10461,7 @@
         <v>253</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F21" s="46"/>
       <c r="G21" s="35"/>
@@ -10474,7 +10477,7 @@
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="24"/>
       <c r="B22" s="25" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>30</v>
@@ -10483,7 +10486,7 @@
         <v>253</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F22" s="46"/>
       <c r="G22" s="35"/>
@@ -10498,10 +10501,10 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="32" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>30</v>
@@ -10510,10 +10513,10 @@
         <v>319</v>
       </c>
       <c r="E23" s="44" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="27"/>
@@ -10528,7 +10531,7 @@
     <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="24"/>
       <c r="B24" s="39" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>30</v>
@@ -10537,10 +10540,10 @@
         <v>319</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G24" s="35"/>
       <c r="H24" s="27"/>
@@ -10555,7 +10558,7 @@
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A25" s="24"/>
       <c r="B25" s="39" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C25" s="26" t="s">
         <v>30</v>
@@ -10564,10 +10567,10 @@
         <v>319</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F25" s="48" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="27"/>
@@ -10582,7 +10585,7 @@
     <row r="26" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="32"/>
       <c r="B26" s="39" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>30</v>
@@ -10591,10 +10594,10 @@
         <v>319</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
@@ -10609,7 +10612,7 @@
     <row r="27" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="32"/>
       <c r="B27" s="39" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C27" s="26" t="s">
         <v>30</v>
@@ -10618,10 +10621,10 @@
         <v>319</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
@@ -10636,7 +10639,7 @@
     <row r="28" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A28" s="32"/>
       <c r="B28" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C28" s="26" t="s">
         <v>30</v>
@@ -10645,10 +10648,10 @@
         <v>493</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F28" s="50" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
@@ -10663,7 +10666,7 @@
     <row r="29" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A29" s="32"/>
       <c r="B29" s="39" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C29" s="26" t="s">
         <v>5</v>
@@ -10672,7 +10675,7 @@
         <v>536</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F29" s="50"/>
       <c r="G29" s="35"/>
@@ -10688,7 +10691,7 @@
     <row r="30" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A30" s="32"/>
       <c r="B30" s="39" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>30</v>
@@ -10697,10 +10700,10 @@
         <v>319</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F30" s="50" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
@@ -10715,7 +10718,7 @@
     <row r="31" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A31" s="32"/>
       <c r="B31" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>30</v>
@@ -10724,10 +10727,10 @@
         <v>493</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G31" s="51"/>
       <c r="H31" s="35"/>
@@ -10742,7 +10745,7 @@
     <row r="32" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A32" s="32"/>
       <c r="B32" s="39" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>30</v>
@@ -10751,10 +10754,10 @@
         <v>319</v>
       </c>
       <c r="E32" s="36" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="F32" s="50" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G32" s="35"/>
       <c r="H32" s="35"/>
@@ -10769,7 +10772,7 @@
     <row r="33" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A33" s="32"/>
       <c r="B33" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C33" s="26" t="s">
         <v>30</v>
@@ -10778,10 +10781,10 @@
         <v>493</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G33" s="51"/>
       <c r="H33" s="35"/>
@@ -10796,7 +10799,7 @@
     <row r="34" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A34" s="32"/>
       <c r="B34" s="39" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>30</v>
@@ -10805,10 +10808,10 @@
         <v>319</v>
       </c>
       <c r="E34" s="36" t="s">
+        <v>820</v>
+      </c>
+      <c r="F34" s="50" t="s">
         <v>819</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>818</v>
       </c>
       <c r="G34" s="35"/>
       <c r="H34" s="35"/>
@@ -10823,7 +10826,7 @@
     <row r="35" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A35" s="32"/>
       <c r="B35" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C35" s="26" t="s">
         <v>30</v>
@@ -10832,10 +10835,10 @@
         <v>493</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G35" s="51"/>
       <c r="H35" s="35"/>
@@ -10850,7 +10853,7 @@
     <row r="36" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A36" s="32"/>
       <c r="B36" s="39" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C36" s="26" t="s">
         <v>30</v>
@@ -10859,10 +10862,10 @@
         <v>319</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G36" s="35"/>
       <c r="H36" s="35"/>
@@ -10877,7 +10880,7 @@
     <row r="37" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A37" s="32"/>
       <c r="B37" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C37" s="26" t="s">
         <v>30</v>
@@ -10886,10 +10889,10 @@
         <v>493</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G37" s="51"/>
       <c r="H37" s="35"/>
@@ -10904,7 +10907,7 @@
     <row r="38" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A38" s="32"/>
       <c r="B38" s="39" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C38" s="26" t="s">
         <v>30</v>
@@ -10913,10 +10916,10 @@
         <v>319</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="F38" s="50" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
@@ -10930,10 +10933,10 @@
     </row>
     <row r="39" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A39" s="32" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C39" s="26" t="s">
         <v>30</v>
@@ -10942,10 +10945,10 @@
         <v>319</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F39" s="35" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
@@ -10960,7 +10963,7 @@
     <row r="40" s="1" customFormat="1" ht="15" spans="1:15">
       <c r="A40" s="32"/>
       <c r="B40" s="39" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>30</v>
@@ -10969,10 +10972,10 @@
         <v>319</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
@@ -10987,7 +10990,7 @@
     <row r="41" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A41" s="32"/>
       <c r="B41" s="39" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>30</v>
@@ -10996,10 +10999,10 @@
         <v>319</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="F41" s="27" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
@@ -11014,7 +11017,7 @@
     <row r="42" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A42" s="32"/>
       <c r="B42" s="39" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C42" s="26" t="s">
         <v>30</v>
@@ -11023,10 +11026,10 @@
         <v>319</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F42" s="27" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
@@ -11041,7 +11044,7 @@
     <row r="43" s="1" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A43" s="32"/>
       <c r="B43" s="39" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>30</v>
@@ -11050,10 +11053,10 @@
         <v>319</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F43" s="27" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
@@ -11068,7 +11071,7 @@
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A44" s="24"/>
       <c r="B44" s="39" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>30</v>
@@ -11077,10 +11080,10 @@
         <v>319</v>
       </c>
       <c r="E44" s="52" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G44" s="35"/>
       <c r="H44" s="27"/>
@@ -11095,7 +11098,7 @@
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="24"/>
       <c r="B45" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>30</v>
@@ -11104,10 +11107,10 @@
         <v>493</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F45" s="36" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="G45" s="48"/>
       <c r="H45" s="27"/>
@@ -11122,7 +11125,7 @@
     <row r="46" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="32"/>
       <c r="B46" s="39" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>30</v>
@@ -11131,10 +11134,10 @@
         <v>319</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G46" s="35"/>
       <c r="H46" s="35"/>
@@ -11149,7 +11152,7 @@
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="24"/>
       <c r="B47" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>30</v>
@@ -11158,10 +11161,10 @@
         <v>493</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G47" s="48"/>
       <c r="H47" s="27"/>
@@ -11176,7 +11179,7 @@
     <row r="48" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A48" s="32"/>
       <c r="B48" s="39" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>30</v>
@@ -11185,10 +11188,10 @@
         <v>319</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F48" s="50" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G48" s="35"/>
       <c r="H48" s="35"/>
@@ -11203,7 +11206,7 @@
     <row r="49" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A49" s="32"/>
       <c r="B49" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>30</v>
@@ -11212,10 +11215,10 @@
         <v>493</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F49" s="36" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G49" s="51"/>
       <c r="H49" s="35"/>
@@ -11230,7 +11233,7 @@
     <row r="50" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="32"/>
       <c r="B50" s="39" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>30</v>
@@ -11239,10 +11242,10 @@
         <v>319</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="G50" s="35"/>
       <c r="H50" s="35"/>
@@ -11257,7 +11260,7 @@
     <row r="51" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="32"/>
       <c r="B51" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>30</v>
@@ -11266,10 +11269,10 @@
         <v>493</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G51" s="51"/>
       <c r="H51" s="35"/>
@@ -11284,7 +11287,7 @@
     <row r="52" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="32"/>
       <c r="B52" s="39" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>30</v>
@@ -11293,10 +11296,10 @@
         <v>319</v>
       </c>
       <c r="E52" s="36" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
@@ -11311,7 +11314,7 @@
     <row r="53" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="32"/>
       <c r="B53" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>30</v>
@@ -11320,10 +11323,10 @@
         <v>493</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F53" s="36" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G53" s="51"/>
       <c r="H53" s="35"/>
@@ -11338,7 +11341,7 @@
     <row r="54" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="32"/>
       <c r="B54" s="39" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>30</v>
@@ -11347,10 +11350,10 @@
         <v>319</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G54" s="35"/>
       <c r="H54" s="35"/>
@@ -11365,7 +11368,7 @@
     <row r="55" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="32"/>
       <c r="B55" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>30</v>
@@ -11374,10 +11377,10 @@
         <v>493</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="G55" s="51"/>
       <c r="H55" s="35"/>
@@ -11392,7 +11395,7 @@
     <row r="56" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="32"/>
       <c r="B56" s="39" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C56" s="26" t="s">
         <v>30</v>
@@ -11401,10 +11404,10 @@
         <v>319</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="G56" s="35"/>
       <c r="H56" s="35"/>
@@ -11419,7 +11422,7 @@
     <row r="57" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="32"/>
       <c r="B57" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>30</v>
@@ -11428,10 +11431,10 @@
         <v>493</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F57" s="36" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G57" s="51"/>
       <c r="H57" s="35"/>
@@ -11446,7 +11449,7 @@
     <row r="58" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="32"/>
       <c r="B58" s="39" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>30</v>
@@ -11455,10 +11458,10 @@
         <v>319</v>
       </c>
       <c r="E58" s="36" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
@@ -11473,7 +11476,7 @@
     <row r="59" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="32"/>
       <c r="B59" s="39" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C59" s="26" t="s">
         <v>30</v>
@@ -11482,10 +11485,10 @@
         <v>493</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G59" s="51"/>
       <c r="H59" s="35"/>
@@ -11500,7 +11503,7 @@
     <row r="60" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A60" s="32"/>
       <c r="B60" s="39" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>30</v>
@@ -11509,10 +11512,10 @@
         <v>319</v>
       </c>
       <c r="E60" s="36" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G60" s="35"/>
       <c r="H60" s="35"/>
@@ -11527,7 +11530,7 @@
     <row r="61" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="32"/>
       <c r="B61" s="39" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>30</v>
@@ -11536,7 +11539,7 @@
         <v>253</v>
       </c>
       <c r="E61" s="36" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -11552,7 +11555,7 @@
     <row r="62" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="32"/>
       <c r="B62" s="39" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C62" s="26" t="s">
         <v>30</v>
@@ -11561,7 +11564,7 @@
         <v>253</v>
       </c>
       <c r="E62" s="36" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F62" s="51"/>
       <c r="G62" s="35"/>
@@ -11577,7 +11580,7 @@
     <row r="63" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="32"/>
       <c r="B63" s="39" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>30</v>
@@ -11586,7 +11589,7 @@
         <v>253</v>
       </c>
       <c r="E63" s="36" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F63" s="51"/>
       <c r="G63" s="35"/>
@@ -11602,7 +11605,7 @@
     <row r="64" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A64" s="32"/>
       <c r="B64" s="39" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C64" s="26" t="s">
         <v>30</v>
@@ -11611,7 +11614,7 @@
         <v>253</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="35"/>
@@ -11626,10 +11629,10 @@
     </row>
     <row r="65" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="32" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C65" s="26" t="s">
         <v>30</v>
@@ -11638,7 +11641,7 @@
         <v>363</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F65" s="46"/>
       <c r="G65" s="35"/>
@@ -11654,7 +11657,7 @@
     <row r="66" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="32"/>
       <c r="B66" s="25" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C66" s="26" t="s">
         <v>30</v>
@@ -11663,7 +11666,7 @@
         <v>363</v>
       </c>
       <c r="E66" s="64" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="F66" s="46"/>
       <c r="G66" s="35"/>
@@ -11679,7 +11682,7 @@
     <row r="67" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="32"/>
       <c r="B67" s="25" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>30</v>
@@ -11688,7 +11691,7 @@
         <v>363</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="35"/>
@@ -11704,7 +11707,7 @@
     <row r="68" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A68" s="32"/>
       <c r="B68" s="25" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C68" s="26" t="s">
         <v>30</v>
@@ -11713,7 +11716,7 @@
         <v>363</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="F68" s="27"/>
       <c r="G68" s="35"/>
@@ -11729,7 +11732,7 @@
     <row r="69" s="1" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="32"/>
       <c r="B69" s="25" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>30</v>
@@ -11738,7 +11741,7 @@
         <v>363</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F69" s="27"/>
       <c r="G69" s="35"/>

--- a/tests/artifact/script/BalanceSheet.xlsx
+++ b/tests/artifact/script/BalanceSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -57,7 +57,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2774,13 +2787,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2927,70 +2940,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3002,8 +2956,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3019,6 +2980,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -3027,15 +2996,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3049,8 +3010,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3065,7 +3050,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3092,7 +3105,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3104,13 +3141,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3122,61 +3237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3188,13 +3255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3206,43 +3267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3254,25 +3279,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3327,6 +3340,39 @@
       </top>
       <bottom style="hair">
         <color theme="6" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3387,39 +3433,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -3431,146 +3444,146 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3623,14 +3636,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3638,7 +3651,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3732,7 +3745,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3865,14 +3878,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="20" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3914,52 +3927,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -4276,7 +4289,7 @@
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6953,7 +6966,7 @@
       <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.9916666666667" style="82" customWidth="1"/>
     <col min="2" max="2" width="42.75" style="83" customWidth="1"/>
@@ -6972,7 +6985,7 @@
     <col min="16" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.15" spans="1:15">
+    <row r="1" ht="15.25" spans="1:15">
       <c r="A1" s="84" t="s">
         <v>725</v>
       </c>
@@ -7003,7 +7016,7 @@
       <c r="N1" s="55"/>
       <c r="O1" s="56"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.15" spans="1:15">
+    <row r="2" s="2" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="86" t="s">
         <v>732</v>
       </c>
@@ -9937,11 +9950,11 @@
   <sheetPr/>
   <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="23.25" style="7" customWidth="1"/>
     <col min="2" max="2" width="49.625" style="8" customWidth="1"/>
@@ -9960,7 +9973,7 @@
     <col min="16" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.35" spans="1:15">
+    <row r="1" s="1" customFormat="1" ht="16.25" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>725</v>
       </c>
@@ -9991,7 +10004,7 @@
       <c r="N1" s="55"/>
       <c r="O1" s="56"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.35" spans="1:15">
+    <row r="2" s="2" customFormat="1" ht="16.25" spans="1:15">
       <c r="A2" s="19" t="s">
         <v>750</v>
       </c>
